--- a/增压缸控制程序/增压.xlsx
+++ b/增压缸控制程序/增压.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="105" windowWidth="15015" windowHeight="4395"/>
@@ -94,10 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>X0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>X1</t>
   </si>
   <si>
@@ -113,19 +109,6 @@
     <t>X5</t>
   </si>
   <si>
-    <t>Y0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>Y2</t>
-  </si>
-  <si>
-    <t>Y3</t>
-  </si>
-  <si>
     <t>自动模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,14 +201,31 @@
   </si>
   <si>
     <t>当急停按下时（或光栅有东西挡住），按启动，手动控制都不起作用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>y5</t>
+  </si>
+  <si>
+    <t>u</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,7 +283,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -357,7 +357,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -392,7 +391,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -568,181 +566,181 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -753,25 +751,25 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -783,12 +781,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -796,12 +794,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
